--- a/Assets/Resources/Experiment2_Result/ExcuteOrder.xlsx
+++ b/Assets/Resources/Experiment2_Result/ExcuteOrder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00Workspace\00Unity\Virtual Room Manipulation (ver.2)\Assets\Resources\Experiment2_Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Infinite-Room-Manipulation\Assets\Resources\Experiment2_Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A0504-87CE-4D28-93E7-71336FD87E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91251080-1E95-46D3-ACCF-39A9CB7B94B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31335" yWindow="615" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="41">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,22 @@
   </si>
   <si>
     <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불참(자가격리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한중혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,9 +172,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,16 +195,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -276,20 +312,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -311,23 +349,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,617 +662,924 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="J2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="D3" s="9">
         <v>44395</v>
       </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="9">
+        <v>44395</v>
+      </c>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="J6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="5"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="O15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="13" t="s">
+      <c r="O16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Experiment2_Result/ExcuteOrder.xlsx
+++ b/Assets/Resources/Experiment2_Result/ExcuteOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Infinite-Room-Manipulation\Assets\Resources\Experiment2_Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E254D0CB-E094-41A8-A7A9-8DCCF5716372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC2D8CA-7D08-4869-859D-1AB05CDEF8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38895" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="39">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,9 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> S2C 실제 촬영 안됨 (까먹고 촬영 버튼을 누르지 않음)</t>
-  </si>
-  <si>
     <t>NB194</t>
   </si>
   <si>
@@ -163,6 +160,30 @@
   </si>
   <si>
     <t>NB144</t>
+  </si>
+  <si>
+    <t>NB196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2C 실제 촬영 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teleport 실제 촬영 안됨, Ours InGame 촬영안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain 조정으로 인해 S2C에서 멀미 호소, S2C InGame 촬영안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -655,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -858,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="P7" s="8">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="Q7" s="4"/>
     </row>
@@ -921,7 +942,7 @@
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1032,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>6</v>
@@ -1062,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>6</v>
@@ -1092,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>7</v>
@@ -1115,9 +1136,15 @@
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="J16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="M16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1127,21 +1154,31 @@
       <c r="O16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="P16" s="8">
+        <v>44400</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="28"/>
+      <c r="J17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="M17" s="5" t="s">
         <v>6</v>
       </c>
@@ -1152,20 +1189,28 @@
         <v>5</v>
       </c>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="28"/>
+      <c r="J18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="M18" s="5" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1221,9 @@
         <v>7</v>
       </c>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -1185,11 +1232,11 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="28"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="5" t="s">
         <v>5</v>
       </c>

--- a/Assets/Resources/Experiment2_Result/ExcuteOrder.xlsx
+++ b/Assets/Resources/Experiment2_Result/ExcuteOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Infinite-Room-Manipulation\Assets\Resources\Experiment2_Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC2D8CA-7D08-4869-859D-1AB05CDEF8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C2A0A8-0484-4C0F-84AC-6521F112C9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>gain 조정으로 인해 S2C에서 멀미 호소, S2C InGame 촬영안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB167</t>
+  </si>
+  <si>
+    <t>NB183</t>
+  </si>
+  <si>
+    <t>NB188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C 멀미 호소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -393,6 +411,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +698,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1234,9 +1255,15 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="28"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="28"/>
+      <c r="J19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="M19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1246,8 +1273,12 @@
       <c r="O19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="P19" s="8">
+        <v>44403</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -1258,9 +1289,15 @@
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="J20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="M20" s="5" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1308,9 @@
         <v>5</v>
       </c>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -1282,9 +1321,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="J21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="M21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1306,9 +1351,15 @@
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="J22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>41</v>
+      </c>
       <c r="M22" s="5" t="s">
         <v>5</v>
       </c>

--- a/Assets/Resources/Experiment2_Result/ExcuteOrder.xlsx
+++ b/Assets/Resources/Experiment2_Result/ExcuteOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Infinite-Room-Manipulation\Assets\Resources\Experiment2_Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C2A0A8-0484-4C0F-84AC-6521F112C9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47568B-0040-465D-8DD2-A13F6EF9CFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="49">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,22 @@
   </si>
   <si>
     <t>S2C 멀미 호소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB189</t>
+  </si>
+  <si>
+    <t>NB185</t>
+  </si>
+  <si>
+    <t>NB186</t>
+  </si>
+  <si>
+    <t>NB184</t>
+  </si>
+  <si>
+    <t>S2C,Teleport InGame 촬영안됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +714,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1381,9 +1397,15 @@
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="J23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>44</v>
+      </c>
       <c r="M23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1415,9 @@
       <c r="O23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P23" s="4"/>
+      <c r="P23" s="8">
+        <v>44404</v>
+      </c>
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,9 +1429,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="J24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>45</v>
+      </c>
       <c r="M24" s="5" t="s">
         <v>7</v>
       </c>
@@ -1429,9 +1459,15 @@
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="J25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="M25" s="5" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1478,9 @@
         <v>6</v>
       </c>
       <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="Q25" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
@@ -1453,9 +1491,15 @@
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="J26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="M26" s="5" t="s">
         <v>7</v>
       </c>
@@ -1478,8 +1522,8 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="5" t="s">
         <v>7</v>
       </c>

--- a/Assets/Resources/Experiment2_Result/ExcuteOrder.xlsx
+++ b/Assets/Resources/Experiment2_Result/ExcuteOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Infinite-Room-Manipulation\Assets\Resources\Experiment2_Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47568B-0040-465D-8DD2-A13F6EF9CFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232BF290-6A31-4D37-A487-A375C1FFEE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,18 +41,6 @@
   </si>
   <si>
     <t>남성</t>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">M </t>
@@ -218,6 +206,21 @@
   <si>
     <t>S2C,Teleport InGame 촬영안됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB174</t>
+  </si>
+  <si>
+    <t>NB182</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>S2C</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,28 +745,28 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="J2" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="Q2" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -776,7 +779,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="4"/>
       <c r="J3" s="25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>4</v>
@@ -785,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P3" s="21">
         <v>44395</v>
@@ -808,22 +811,22 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="J4" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -838,7 +841,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="J5" s="26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>4</v>
@@ -847,13 +850,13 @@
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -868,7 +871,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="J6" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>4</v>
@@ -877,13 +880,13 @@
         <v>3</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -898,22 +901,22 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="J7" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P7" s="8">
         <v>44397</v>
@@ -930,22 +933,22 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="J8" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -960,26 +963,26 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="J9" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -992,22 +995,22 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="J10" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1022,26 +1025,26 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="J11" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1054,22 +1057,22 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="J12" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1084,22 +1087,22 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="J13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1114,22 +1117,22 @@
       <c r="G14" s="8"/>
       <c r="H14" s="4"/>
       <c r="J14" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="4"/>
@@ -1144,22 +1147,22 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="J15" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1174,28 +1177,28 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="J16" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P16" s="8">
         <v>44400</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1208,26 +1211,26 @@
       <c r="G17" s="5"/>
       <c r="H17" s="28"/>
       <c r="J17" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L17" s="28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1240,26 +1243,26 @@
       <c r="G18" s="5"/>
       <c r="H18" s="28"/>
       <c r="J18" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L18" s="28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1272,28 +1275,28 @@
       <c r="G19" s="5"/>
       <c r="H19" s="28"/>
       <c r="J19" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P19" s="8">
         <v>44403</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1306,26 +1309,26 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="J20" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1338,22 +1341,22 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="J21" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1368,22 +1371,22 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="J22" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1398,22 +1401,22 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="J23" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P23" s="8">
         <v>44404</v>
@@ -1430,22 +1433,22 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="J24" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -1460,26 +1463,26 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="J25" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,22 +1495,22 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="J26" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -1521,17 +1524,23 @@
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="30"/>
+      <c r="J27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="M27" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -1545,17 +1554,23 @@
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="J28" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="M28" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -1570,16 +1585,16 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -1597,13 +1612,13 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -1621,13 +1636,13 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -1645,13 +1660,13 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -1669,17 +1684,17 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="23" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="P33" s="24"/>
       <c r="Q33" s="23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
